--- a/tests/test_datasets/test_random.xlsx
+++ b/tests/test_datasets/test_random.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t xml:space="preserve">Patient_id</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t xml:space="preserve">Normal(0,1)</t>
   </si>
   <si>
-    <t xml:space="preserve">numeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normal(0,2)</t>
   </si>
   <si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">#_0-19.99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_random</t>
   </si>
 </sst>
 </file>
@@ -360,20 +363,20 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,13 +3318,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3335,45 +3335,72 @@
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3395,16 +3422,16 @@
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,64 +3439,64 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -3531,10 +3558,10 @@
         <v>3.08811655767924</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>100</v>
@@ -3591,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>100</v>
@@ -3648,7 +3675,7 @@
         <v>33</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>100</v>
@@ -3705,7 +3732,7 @@
         <v>34</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>100</v>
@@ -3762,7 +3789,7 @@
         <v>35</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>100</v>
@@ -3819,7 +3846,7 @@
         <v>36</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>100</v>
@@ -3876,7 +3903,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>100</v>
@@ -3930,10 +3957,10 @@
         <v>4.7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>97</v>
@@ -3966,15 +3993,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,6 +4042,38 @@
       </c>
       <c r="L1" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_datasets/test_random.xlsx
+++ b/tests/test_datasets/test_random.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -362,21 +362,19 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I44" activeCellId="0" sqref="I44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E87" activeCellId="0" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,6 +3320,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3422,16 +3423,16 @@
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,8 +3535,8 @@
         <v>-0.0227587040652588</v>
       </c>
       <c r="D2" s="0" t="n">
-        <f aca="false">STDEV(data!B2:B101)</f>
-        <v>0.934788116927799</v>
+        <f aca="false">_xlfn.STDEV.P(data!B2:B101)</f>
+        <v>0.930102432699714</v>
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">MIN(data!B2:B101)</f>
@@ -3568,11 +3569,11 @@
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">C2-3*D2</f>
-        <v>-2.82712305484866</v>
+        <v>-2.8130660021644</v>
       </c>
       <c r="O2" s="0" t="n">
         <f aca="false">C2+3*D2</f>
-        <v>2.78160564671814</v>
+        <v>2.76754859403388</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -3995,15 +3996,13 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0612244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
